--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LiuFangGuo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WIND/GlodonWorkSpace/GlodonTemp/LHMTempPaper/TEMPpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="27320" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="720" windowWidth="24020" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018-31-stage" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -48,20 +48,6 @@
   </si>
   <si>
     <t>to do list</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>目标：论文总体大纲出来</t>
-    </r>
   </si>
   <si>
     <r>
@@ -113,15 +99,32 @@
     <t>日记反省</t>
   </si>
   <si>
-    <t>完成实施计划表的能完成的部分
-每天两个小时是这么规划的：
-切割成25+5=30分钟的最小任务，集中精力，完成突破</t>
+    <t>1.完成资料查找验证：现在离开学校查找资料的VPN没找到，学校图书馆这边没有可以用的VPN，有一个系统可以帮助查找资料，经过测试，从其他地方可以登录，但是资料的查找的及时性有待考证，这个原因在于资料的获得依赖于其他学校图书馆，因为目前没有得到理想的反馈；                                                                          2.下载了4篇内容相关的论文，对于其中内容的相关性需要进一步阅读论文才能得出结论；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对下载的4篇论文的内容进行梳理；                   2.了解卷积神经网络和交通流量等和论文相关的知识；                                                                  3.希望可以得出一个前期的研究思路，并对于后期的工作进行更加具体的规划；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.今天完成的内容还未涉及和论文相关的实质性内容，只是完成了一些前期的工作准备，需要有更加整体的思路；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>目标：论文初稿完成
 题目：基于卷积神经网络的交通流量预测
 时间投入：一共35天，5周，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每天保障</t>
     </r>
     <r>
       <rPr>
@@ -129,7 +132,17 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>每天保障2个小时</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个小时</t>
     </r>
     <r>
       <rPr>
@@ -147,9 +160,75 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>项目地址：git@github.com:GuoLiuFang/TEMPpaper.git</t>
+      <t>git@github.com:GuoLiuFang/TEMPpaper.git</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">目标：论文总体大纲出来
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>目标清晰化进程：目录结构和摘要 v1.0</t>
+    </r>
+  </si>
+  <si>
+    <t>意见反馈</t>
+  </si>
+  <si>
+    <t>1.明天把校外查看论文的方法或者替代方法给你；
+2.今天我们算是流程走通了。</t>
+  </si>
+  <si>
+    <r>
+      <t>明天最好能得到如下结论：
+1.一个版本 v1.0的目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>（交付物是 doc 文档）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.一个版本 v1.0的摘要</t>
     </r>
   </si>
 </sst>
@@ -160,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +273,49 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -233,7 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,20 +363,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,6 +387,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -281,6 +413,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -549,24 +684,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="56.5" customWidth="1"/>
+    <col min="8" max="8" width="56.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -588,94 +724,97 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2">
         <v>12</v>
       </c>
-      <c r="I1" s="2">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>13</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>14</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>15</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>16</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>17</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>18</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>19</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>20</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>21</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>22</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>23</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>1</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>2</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>3</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>4</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>43122</v>
@@ -683,31 +822,40 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1">
         <v>43123</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="1">
         <v>43124</v>
       </c>
@@ -717,12 +865,13 @@
       <c r="G4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1">
         <v>43125</v>
       </c>
@@ -732,12 +881,13 @@
       <c r="G5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1">
         <v>43126</v>
       </c>
@@ -747,12 +897,13 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1">
         <v>43127</v>
       </c>
@@ -762,12 +913,13 @@
       <c r="G7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1">
         <v>43128</v>
       </c>
@@ -777,13 +929,14 @@
       <c r="G8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>43129</v>
@@ -794,12 +947,13 @@
       <c r="G9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1">
         <v>43130</v>
       </c>
@@ -809,12 +963,13 @@
       <c r="G10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1">
         <v>43131</v>
       </c>
@@ -824,12 +979,13 @@
       <c r="G11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1">
         <v>43132</v>
       </c>
@@ -839,12 +995,13 @@
       <c r="G12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1">
         <v>43133</v>
       </c>
@@ -854,12 +1011,13 @@
       <c r="G13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1">
         <v>43134</v>
       </c>
@@ -869,12 +1027,13 @@
       <c r="G14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1">
         <v>43135</v>
       </c>
@@ -884,14 +1043,15 @@
       <c r="G15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="8">
         <v>6</v>
       </c>
       <c r="E16" s="1">
@@ -903,12 +1063,13 @@
       <c r="G16" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="1">
         <v>43137</v>
       </c>
@@ -918,12 +1079,13 @@
       <c r="G17" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="1">
         <v>43138</v>
       </c>
@@ -933,12 +1095,13 @@
       <c r="G18" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1">
         <v>43139</v>
       </c>
@@ -948,12 +1111,13 @@
       <c r="G19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1">
         <v>43140</v>
       </c>
@@ -963,12 +1127,13 @@
       <c r="G20" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="1">
         <v>43141</v>
       </c>
@@ -978,12 +1143,13 @@
       <c r="G21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="1">
         <v>43142</v>
       </c>
@@ -993,15 +1159,16 @@
       <c r="G22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
         <v>7</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>43143</v>
       </c>
       <c r="F23" s="2">
@@ -1010,13 +1177,14 @@
       <c r="G23" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3">
         <v>43144</v>
       </c>
       <c r="F24" s="2">
@@ -1025,13 +1193,14 @@
       <c r="G24" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6">
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3">
         <v>43145</v>
       </c>
       <c r="F25" s="2">
@@ -1040,13 +1209,14 @@
       <c r="G25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="6">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3">
         <v>43146</v>
       </c>
       <c r="F26" s="2">
@@ -1055,13 +1225,14 @@
       <c r="G26" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="6">
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3">
         <v>43147</v>
       </c>
       <c r="F27" s="2">
@@ -1070,13 +1241,14 @@
       <c r="G27" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="3">
         <v>43148</v>
       </c>
       <c r="F28" s="2">
@@ -1085,13 +1257,14 @@
       <c r="G28" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="6">
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="3">
         <v>43149</v>
       </c>
       <c r="F29" s="2">
@@ -1100,19 +1273,20 @@
       <c r="G29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="6">
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
         <v>43150</v>
       </c>
       <c r="F30" s="2">
@@ -1121,13 +1295,14 @@
       <c r="G30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6">
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="3">
         <v>43151</v>
       </c>
       <c r="F31" s="2">
@@ -1136,13 +1311,14 @@
       <c r="G31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6">
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3">
         <v>43152</v>
       </c>
       <c r="F32" s="2">
@@ -1151,13 +1327,14 @@
       <c r="G32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="6">
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3">
         <v>43153</v>
       </c>
       <c r="F33" s="2">
@@ -1166,12 +1343,13 @@
       <c r="G33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="1">
         <v>43154</v>
       </c>
@@ -1181,12 +1359,13 @@
       <c r="G34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="1">
         <v>43155</v>
       </c>
@@ -1196,12 +1375,13 @@
       <c r="G35" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="1">
         <v>43156</v>
       </c>
@@ -1211,6 +1391,7 @@
       <c r="G36" s="2">
         <v>35</v>
       </c>
+      <c r="H36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1226,7 +1407,8 @@
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="C30:C36"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WIND/GlodonWorkSpace/GlodonTemp/LHMTempPaper/TEMPpaper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaishai\Desktop\11.5\123\TEMPpaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="720" windowWidth="24020" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="2055" yWindow="720" windowWidth="24015" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018-31-stage" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日期</t>
   </si>
@@ -148,7 +145,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,13 +220,21 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 2.一个版本 v1.0的摘要</t>
     </r>
+  </si>
+  <si>
+    <t>1.阅读1月22日下载的文献，简要说明主要内容                                            2.未完成目录摘要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续对这发现相似性的这几篇文章进行阅读，从这些论文的参考文献中检索一些国内外的其他文章，寻找其他的相关内容；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -237,20 +242,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -258,7 +263,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -266,7 +271,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -277,21 +282,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,7 +314,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,6 +322,13 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -357,13 +369,13 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,9 +384,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,26 +403,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -686,23 +698,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="59.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="56.5" customWidth="1"/>
-    <col min="8" max="8" width="56.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="56.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30.875" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -724,7 +736,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -803,17 +815,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1">
@@ -825,18 +837,18 @@
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="1">
         <v>43123</v>
       </c>
@@ -846,32 +858,34 @@
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="I3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="2" customFormat="1" ht="47.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1">
         <v>43124</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="G4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:33" s="2" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1">
         <v>43125</v>
       </c>
@@ -881,13 +895,13 @@
       <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:33" s="2" customFormat="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1">
         <v>43126</v>
       </c>
@@ -897,13 +911,13 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:33" s="2" customFormat="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>43127</v>
       </c>
@@ -913,13 +927,13 @@
       <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" s="2" customFormat="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1">
         <v>43128</v>
       </c>
@@ -929,13 +943,13 @@
       <c r="G8" s="2">
         <v>7</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1">
@@ -947,13 +961,13 @@
       <c r="G9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:33" s="2" customFormat="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1">
         <v>43130</v>
       </c>
@@ -963,13 +977,13 @@
       <c r="G10" s="2">
         <v>9</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:33" s="2" customFormat="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1">
         <v>43131</v>
       </c>
@@ -979,13 +993,13 @@
       <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:33" s="2" customFormat="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1">
         <v>43132</v>
       </c>
@@ -995,13 +1009,13 @@
       <c r="G12" s="2">
         <v>11</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:33" s="2" customFormat="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1">
         <v>43133</v>
       </c>
@@ -1011,13 +1025,13 @@
       <c r="G13" s="2">
         <v>12</v>
       </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:33" s="2" customFormat="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1">
         <v>43134</v>
       </c>
@@ -1027,13 +1041,13 @@
       <c r="G14" s="2">
         <v>13</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:33" s="2" customFormat="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1">
         <v>43135</v>
       </c>
@@ -1043,15 +1057,15 @@
       <c r="G15" s="2">
         <v>14</v>
       </c>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:33" s="2" customFormat="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <v>6</v>
       </c>
       <c r="E16" s="1">
@@ -1063,13 +1077,13 @@
       <c r="G16" s="2">
         <v>15</v>
       </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1">
         <v>43137</v>
       </c>
@@ -1079,13 +1093,13 @@
       <c r="G17" s="2">
         <v>16</v>
       </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1">
         <v>43138</v>
       </c>
@@ -1095,13 +1109,13 @@
       <c r="G18" s="2">
         <v>17</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1">
         <v>43139</v>
       </c>
@@ -1111,13 +1125,13 @@
       <c r="G19" s="2">
         <v>18</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1">
         <v>43140</v>
       </c>
@@ -1127,13 +1141,13 @@
       <c r="G20" s="2">
         <v>19</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1">
         <v>43141</v>
       </c>
@@ -1143,13 +1157,13 @@
       <c r="G21" s="2">
         <v>20</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1">
         <v>43142</v>
       </c>
@@ -1159,13 +1173,13 @@
       <c r="G22" s="2">
         <v>21</v>
       </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
         <v>7</v>
       </c>
       <c r="E23" s="3">
@@ -1177,13 +1191,13 @@
       <c r="G23" s="2">
         <v>22</v>
       </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3">
         <v>43144</v>
       </c>
@@ -1193,13 +1207,13 @@
       <c r="G24" s="2">
         <v>23</v>
       </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="3">
         <v>43145</v>
       </c>
@@ -1209,13 +1223,13 @@
       <c r="G25" s="2">
         <v>24</v>
       </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="3">
         <v>43146</v>
       </c>
@@ -1225,13 +1239,13 @@
       <c r="G26" s="2">
         <v>25</v>
       </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="3">
         <v>43147</v>
       </c>
@@ -1241,13 +1255,13 @@
       <c r="G27" s="2">
         <v>26</v>
       </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="3">
         <v>43148</v>
       </c>
@@ -1257,13 +1271,13 @@
       <c r="G28" s="2">
         <v>27</v>
       </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="3">
         <v>43149</v>
       </c>
@@ -1273,17 +1287,17 @@
       <c r="G29" s="2">
         <v>28</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7" t="s">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3">
@@ -1295,13 +1309,13 @@
       <c r="G30" s="2">
         <v>29</v>
       </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="3">
         <v>43151</v>
       </c>
@@ -1311,13 +1325,13 @@
       <c r="G31" s="2">
         <v>30</v>
       </c>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3">
         <v>43152</v>
       </c>
@@ -1327,13 +1341,13 @@
       <c r="G32" s="2">
         <v>31</v>
       </c>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="3">
         <v>43153</v>
       </c>
@@ -1343,13 +1357,13 @@
       <c r="G33" s="2">
         <v>32</v>
       </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1">
         <v>43154</v>
       </c>
@@ -1359,13 +1373,13 @@
       <c r="G34" s="2">
         <v>33</v>
       </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1">
         <v>43155</v>
       </c>
@@ -1375,13 +1389,13 @@
       <c r="G35" s="2">
         <v>34</v>
       </c>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1">
         <v>43156</v>
       </c>
@@ -1391,7 +1405,7 @@
       <c r="G36" s="2">
         <v>35</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaishai\Desktop\11.5\123\TEMPpaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WIND/GlodonWorkSpace/GlodonTemp/TEMPpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="720" windowWidth="24015" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="720" windowWidth="24020" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018-31-stage" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>日期</t>
   </si>
@@ -145,7 +148,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -220,7 +223,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,6 +238,15 @@
   <si>
     <t>1.继续对这发现相似性的这几篇文章进行阅读，从这些论文的参考文献中检索一些国内外的其他文章，寻找其他的相关内容；</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明晰产出物的作用
+1.v1.0的目录的作用是，帮助理顺这个题目的构架问题；
+2.v1.0的摘要的作用是，了解目前已有的写作方向；
+通过阅读你发的论文摘要和简介。。
+决定：
+1.获取各个论文中用到的数据集。
+2.搜索其他渠道的数据集。</t>
   </si>
 </sst>
 </file>
@@ -242,20 +254,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +275,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +283,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -282,20 +294,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,7 +326,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -326,7 +338,7 @@
     <font>
       <sz val="12"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -367,15 +379,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -391,6 +403,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -403,22 +418,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -698,23 +713,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="56.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="30.875" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="75.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -815,17 +830,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1">
@@ -844,11 +859,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1">
         <v>43123</v>
       </c>
@@ -861,31 +876,33 @@
       <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" ht="47.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+    <row r="4" spans="1:33" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="1">
         <v>43124</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:33" s="2" customFormat="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="H4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1">
         <v>43125</v>
       </c>
@@ -897,11 +914,11 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1">
         <v>43126</v>
       </c>
@@ -913,11 +930,11 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1">
         <v>43127</v>
       </c>
@@ -929,11 +946,11 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="1">
         <v>43128</v>
       </c>
@@ -945,11 +962,11 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1">
@@ -963,11 +980,11 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1">
         <v>43130</v>
       </c>
@@ -979,11 +996,11 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1">
         <v>43131</v>
       </c>
@@ -995,11 +1012,11 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1">
         <v>43132</v>
       </c>
@@ -1011,11 +1028,11 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1">
         <v>43133</v>
       </c>
@@ -1027,11 +1044,11 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1">
         <v>43134</v>
       </c>
@@ -1043,11 +1060,11 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="1">
         <v>43135</v>
       </c>
@@ -1059,13 +1076,13 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11">
         <v>3</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <v>6</v>
       </c>
       <c r="E16" s="1">
@@ -1079,11 +1096,11 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1">
         <v>43137</v>
       </c>
@@ -1095,11 +1112,11 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1">
         <v>43138</v>
       </c>
@@ -1111,11 +1128,11 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1">
         <v>43139</v>
       </c>
@@ -1127,11 +1144,11 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1">
         <v>43140</v>
       </c>
@@ -1143,11 +1160,11 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1">
         <v>43141</v>
       </c>
@@ -1159,11 +1176,11 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="1">
         <v>43142</v>
       </c>
@@ -1175,11 +1192,11 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
         <v>7</v>
       </c>
       <c r="E23" s="3">
@@ -1193,11 +1210,11 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3">
         <v>43144</v>
       </c>
@@ -1209,11 +1226,11 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="3">
         <v>43145</v>
       </c>
@@ -1225,11 +1242,11 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="3">
         <v>43146</v>
       </c>
@@ -1241,11 +1258,11 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="3">
         <v>43147</v>
       </c>
@@ -1257,11 +1274,11 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="3">
         <v>43148</v>
       </c>
@@ -1273,11 +1290,11 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="3">
         <v>43149</v>
       </c>
@@ -1289,15 +1306,15 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3">
@@ -1311,11 +1328,11 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="3">
         <v>43151</v>
       </c>
@@ -1327,11 +1344,11 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3">
         <v>43152</v>
       </c>
@@ -1343,11 +1360,11 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="3">
         <v>43153</v>
       </c>
@@ -1359,11 +1376,11 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1">
         <v>43154</v>
       </c>
@@ -1375,11 +1392,11 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="1">
         <v>43155</v>
       </c>
@@ -1391,11 +1408,11 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="1">
         <v>43156</v>
       </c>

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WIND/GlodonWorkSpace/GlodonTemp/TEMPpaper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaishai\Desktop\11.5\123\TEMPpaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="720" windowWidth="24020" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="2055" yWindow="720" windowWidth="24015" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018-31-stage" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>日期</t>
   </si>
@@ -148,7 +145,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,7 +220,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
+        <rFont val="DengXian"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,26 +245,30 @@
 1.获取各个论文中用到的数据集。
 2.搜索其他渠道的数据集。</t>
   </si>
+  <si>
+    <t>查找可用的数据集，在kaggle上看到一个美国的交通路况，由于实验室网速问题，明天去公司下载一下，看看能不能用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -275,7 +276,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -283,7 +284,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -294,20 +295,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -326,7 +327,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +339,7 @@
     <font>
       <sz val="12"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -381,13 +382,13 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,6 +407,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -418,22 +422,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -714,22 +715,22 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="59.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="75.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="75.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30.875" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -830,17 +831,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1">
@@ -859,11 +860,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1">
         <v>43123</v>
       </c>
@@ -880,11 +881,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+    <row r="4" spans="1:33" s="2" customFormat="1" ht="110.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1">
         <v>43124</v>
       </c>
@@ -894,31 +895,31 @@
       <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+    <row r="5" spans="1:33" s="2" customFormat="1" ht="47.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1">
         <v>43125</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="2">
-        <v>4</v>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+    <row r="6" spans="1:33" s="2" customFormat="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1">
         <v>43126</v>
       </c>
@@ -930,11 +931,11 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+    <row r="7" spans="1:33" s="2" customFormat="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1">
         <v>43127</v>
       </c>
@@ -946,11 +947,11 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:33" s="2" customFormat="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1">
         <v>43128</v>
       </c>
@@ -962,11 +963,11 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
+    <row r="9" spans="1:33" s="2" customFormat="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1">
@@ -980,11 +981,11 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+    <row r="10" spans="1:33" s="2" customFormat="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1">
         <v>43130</v>
       </c>
@@ -996,11 +997,11 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+    <row r="11" spans="1:33" s="2" customFormat="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1">
         <v>43131</v>
       </c>
@@ -1012,11 +1013,11 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+    <row r="12" spans="1:33" s="2" customFormat="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1">
         <v>43132</v>
       </c>
@@ -1028,11 +1029,11 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
+    <row r="13" spans="1:33" s="2" customFormat="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1">
         <v>43133</v>
       </c>
@@ -1044,11 +1045,11 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+    <row r="14" spans="1:33" s="2" customFormat="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1">
         <v>43134</v>
       </c>
@@ -1060,11 +1061,11 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
+    <row r="15" spans="1:33" s="2" customFormat="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1">
         <v>43135</v>
       </c>
@@ -1076,13 +1077,13 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11">
+    <row r="16" spans="1:33" s="2" customFormat="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12">
         <v>3</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>6</v>
       </c>
       <c r="E16" s="1">
@@ -1096,11 +1097,11 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+    <row r="17" spans="1:8" s="2" customFormat="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1">
         <v>43137</v>
       </c>
@@ -1112,11 +1113,11 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+    <row r="18" spans="1:8" s="2" customFormat="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1">
         <v>43138</v>
       </c>
@@ -1128,11 +1129,11 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+    <row r="19" spans="1:8" s="2" customFormat="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1">
         <v>43139</v>
       </c>
@@ -1144,11 +1145,11 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+    <row r="20" spans="1:8" s="2" customFormat="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1">
         <v>43140</v>
       </c>
@@ -1160,11 +1161,11 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+    <row r="21" spans="1:8" s="2" customFormat="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1">
         <v>43141</v>
       </c>
@@ -1176,11 +1177,11 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1">
         <v>43142</v>
       </c>
@@ -1192,11 +1193,11 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11">
+    <row r="23" spans="1:8" s="2" customFormat="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
         <v>7</v>
       </c>
       <c r="E23" s="3">
@@ -1210,11 +1211,11 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+    <row r="24" spans="1:8" s="2" customFormat="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="3">
         <v>43144</v>
       </c>
@@ -1226,11 +1227,11 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+    <row r="25" spans="1:8" s="2" customFormat="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="3">
         <v>43145</v>
       </c>
@@ -1242,11 +1243,11 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+    <row r="26" spans="1:8" s="2" customFormat="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="3">
         <v>43146</v>
       </c>
@@ -1258,11 +1259,11 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+    <row r="27" spans="1:8" s="2" customFormat="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="3">
         <v>43147</v>
       </c>
@@ -1274,11 +1275,11 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+    <row r="28" spans="1:8" s="2" customFormat="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="3">
         <v>43148</v>
       </c>
@@ -1290,11 +1291,11 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+    <row r="29" spans="1:8" s="2" customFormat="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="3">
         <v>43149</v>
       </c>
@@ -1306,15 +1307,15 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10" t="s">
+    <row r="30" spans="1:8" s="2" customFormat="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="3">
@@ -1328,11 +1329,11 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+    <row r="31" spans="1:8" s="2" customFormat="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="3">
         <v>43151</v>
       </c>
@@ -1344,11 +1345,11 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+    <row r="32" spans="1:8" s="2" customFormat="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="3">
         <v>43152</v>
       </c>
@@ -1360,11 +1361,11 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+    <row r="33" spans="1:8" s="2" customFormat="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="3">
         <v>43153</v>
       </c>
@@ -1376,11 +1377,11 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+    <row r="34" spans="1:8" s="2" customFormat="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1">
         <v>43154</v>
       </c>
@@ -1392,11 +1393,11 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+    <row r="35" spans="1:8" s="2" customFormat="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1">
         <v>43155</v>
       </c>
@@ -1408,11 +1409,11 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+    <row r="36" spans="1:8" s="2" customFormat="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1">
         <v>43156</v>
       </c>

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>查找可用的数据集，在kaggle上看到一个美国的交通路况，由于实验室网速问题，明天去公司下载一下，看看能不能用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据摘要和目录，针对性的查找目前使用的预测方式，据需挖掘论文涉及的相关信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +719,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -915,7 +919,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1">
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="31.5">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -926,8 +930,8 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="6"/>
     </row>

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>根据摘要和目录，针对性的查找目前使用的预测方式，据需挖掘论文涉及的相关信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续查找资料，明晰论文研究背景</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -718,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -946,8 +950,8 @@
       <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="2">
-        <v>6</v>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H7" s="6"/>
     </row>

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaishai\Desktop\11.5\123\TEMPpaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WIND/GlodonWorkSpace/GlodonTemp/TEMPpaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="720" windowWidth="24015" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24020" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2018-31-stage" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -145,7 +148,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -220,7 +223,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
-        <rFont val="DengXian"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,26 +260,36 @@
     <t>继续查找资料，明晰论文研究背景</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>问题稍微有点堆积了：
+1. teamviewer 远程，遇到的软件定时重启的问题是否解决？
+2.搜索新浪微博，关注“爱可可-爱生活”，然后，在它的微博中搜索“traffic”或者“交通”有很多顶级论文。应该对你自己的论文也会有帮助。</t>
+  </si>
+  <si>
+    <t>1.你会一些特Tensorflow中的常用算法和处理流程吗？
+2.可以先从统计学角度对数据集有个概况性的了解。
+3.最好有国内的数据集做支撑，会更好。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +297,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +305,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,20 +316,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -335,7 +348,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -347,7 +360,7 @@
     <font>
       <sz val="12"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,13 +403,13 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -432,17 +445,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -722,23 +735,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
-    <col min="8" max="8" width="75.375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="30.875" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="75.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -839,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1">
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -868,7 +881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1">
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -889,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" ht="110.25">
+    <row r="4" spans="1:33" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -907,7 +920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" ht="47.25">
+    <row r="5" spans="1:33" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -921,9 +934,11 @@
       <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" ht="31.5">
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -937,9 +952,11 @@
       <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:33" s="2" customFormat="1">
+      <c r="H6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -955,7 +972,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1">
+    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -971,7 +988,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:33" s="2" customFormat="1">
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -989,7 +1006,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1">
+    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1005,7 +1022,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1">
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1021,7 +1038,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:33" s="2" customFormat="1">
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1037,7 +1054,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:33" s="2" customFormat="1">
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1053,7 +1070,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:33" s="2" customFormat="1">
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1069,7 +1086,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1">
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1085,7 +1102,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:33" s="2" customFormat="1">
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12">
@@ -1105,7 +1122,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1">
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1121,7 +1138,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1137,7 +1154,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1153,7 +1170,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1169,7 +1186,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1185,7 +1202,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1201,7 +1218,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1">
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1219,7 +1236,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1235,7 +1252,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1">
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1251,7 +1268,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1267,7 +1284,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1">
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1283,7 +1300,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1299,7 +1316,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1">
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1315,7 +1332,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="11" t="s">
         <v>9</v>
@@ -1337,7 +1354,7 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1">
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1353,7 +1370,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1369,7 +1386,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1385,7 +1402,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1401,7 +1418,7 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1417,7 +1434,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>继续查找资料，明晰论文研究背景</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不断查找资料的过程中，对研究的问题有了进一步认识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将开始4篇论文中的剩余两篇的参考文献下载下来</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +731,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -922,6 +930,9 @@
         <v>23</v>
       </c>
       <c r="H5" s="6"/>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:33" s="2" customFormat="1" ht="31.5">
       <c r="A6" s="12"/>
@@ -938,6 +949,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="6"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:33" s="2" customFormat="1">
       <c r="A7" s="12"/>
@@ -954,8 +966,9 @@
         <v>25</v>
       </c>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:33" s="2" customFormat="1">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="31.5">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -966,8 +979,8 @@
       <c r="F8" s="2">
         <v>7</v>
       </c>
-      <c r="G8" s="2">
-        <v>7</v>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -1434,7 +1447,8 @@
       <c r="H36" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="D30:D36"/>
     <mergeCell ref="A2:A36"/>
     <mergeCell ref="B2:B29"/>

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>将开始4篇论文中的剩余两篇的参考文献下载下来</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了参考论文的巨大部分下载</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始完成绪论，完成第一章可以完成的部分</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +739,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H18" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -983,8 +991,11 @@
         <v>27</v>
       </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:33" s="2" customFormat="1">
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="31.5">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -997,8 +1008,8 @@
       <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" s="2">
-        <v>8</v>
+      <c r="G9" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="6"/>
     </row>

--- a/PaperImplementationPlan.xlsx
+++ b/PaperImplementationPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -266,11 +266,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>完成了参考论文的巨大部分下载</t>
+    <t>计划开始完成绪论，完成第一章可以完成的部分</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>计划开始完成绪论，完成第一章可以完成的部分</t>
+    <t>完成了参考论文的绝大部分下载</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了绪论的内容，可能需要后期根据具体的研究内容做调整</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要沟通完成内容</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -992,7 +1000,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="2" customFormat="1" ht="31.5">
@@ -1009,9 +1017,12 @@
         <v>8</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="6"/>
+      <c r="I9" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:33" s="2" customFormat="1">
       <c r="A10" s="12"/>
@@ -1024,8 +1035,8 @@
       <c r="F10" s="2">
         <v>9</v>
       </c>
-      <c r="G10" s="2">
-        <v>9</v>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H10" s="6"/>
     </row>
